--- a/biology/Zoologie/Himalanura/Himalanura.xlsx
+++ b/biology/Zoologie/Himalanura/Himalanura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himalanura est un genre de collemboles de la famille des Entomobryidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Himalanura a été créé en 1958 par l'entomologiste indien H. N. Baijal (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 8 septembre 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 8 septembre 2019) :
 Himalanura baijali Baquero &amp; Jordana, 2014
 Himalanura bermani Tshelnokov, 1977
 Himalanura bulunkuli Tshelnokov, 1977
@@ -621,7 +639,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baijal, 1958 : « Entomological survey of Himalaya. Part 28. Nival Collembola from the North-West Himalaya ». Proceedings of the National Academy of Sciences of India, vol. 28B, p. 349-360.</t>
         </is>
